--- a/doc/Submission_diary.xlsx
+++ b/doc/Submission_diary.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbriens\Documents\M2\Apprentissage\Projet\GIT\Sakhir\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Submission number</t>
   </si>
@@ -53,28 +61,23 @@
   <si>
     <t>Flo C</t>
   </si>
+  <si>
+    <t>Regression linéaire sur l’écart THobs-TH (après suppression de NA en blocs)</t>
+  </si>
+  <si>
+    <t>sub_3.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -118,41 +121,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,24 +143,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Thème Office">
       <a:dk1>
@@ -380,7 +423,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -399,7 +442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -429,7 +472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -455,7 +498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -481,7 +524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -507,7 +550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -533,7 +576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,9 +693,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -669,7 +718,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -688,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,9 +984,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -951,7 +1006,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -970,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,68 +1276,77 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.35156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1719" style="1" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="256" width="10.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1291,17 +1355,17 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7">
@@ -1310,18 +1374,26 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43035</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1332,7 +1404,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1343,7 +1415,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1354,7 +1426,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1365,7 +1437,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1376,7 +1448,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1387,7 +1459,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1400,7 +1472,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1408,85 +1480,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="8" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="8" customWidth="1"/>
+    <col min="1" max="256" width="10.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1495,7 +1562,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1503,85 +1570,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="9" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="9" customWidth="1"/>
+    <col min="1" max="256" width="10.88671875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1590,7 +1652,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
